--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.905224911631</v>
+        <v>51.72517666666667</v>
       </c>
       <c r="H2">
-        <v>49.905224911631</v>
+        <v>155.17553</v>
       </c>
       <c r="I2">
-        <v>0.9958168605052418</v>
+        <v>0.9871016109990332</v>
       </c>
       <c r="J2">
-        <v>0.9958168605052418</v>
+        <v>0.9871016109990332</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9218602339762</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N2">
-        <v>11.9218602339762</v>
+        <v>51.97477</v>
       </c>
       <c r="O2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P2">
-        <v>0.1664368068501512</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q2">
-        <v>594.9631163416121</v>
+        <v>896.1347201531223</v>
       </c>
       <c r="R2">
-        <v>594.9631163416121</v>
+        <v>8065.2124813781</v>
       </c>
       <c r="S2">
-        <v>0.1657405784700348</v>
+        <v>0.1788005688213258</v>
       </c>
       <c r="T2">
-        <v>0.1657405784700348</v>
+        <v>0.1788005688213258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.905224911631</v>
+        <v>51.72517666666667</v>
       </c>
       <c r="H3">
-        <v>49.905224911631</v>
+        <v>155.17553</v>
       </c>
       <c r="I3">
-        <v>0.9958168605052418</v>
+        <v>0.9871016109990332</v>
       </c>
       <c r="J3">
-        <v>0.9958168605052418</v>
+        <v>0.9871016109990332</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.53895892256346</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N3">
-        <v>6.53895892256346</v>
+        <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P3">
-        <v>0.09128805587689628</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q3">
-        <v>326.3282157184458</v>
+        <v>340.8937250764078</v>
       </c>
       <c r="R3">
-        <v>326.3282157184458</v>
+        <v>3068.04352568767</v>
       </c>
       <c r="S3">
-        <v>0.09090618520495794</v>
+        <v>0.0680165499456014</v>
       </c>
       <c r="T3">
-        <v>0.09090618520495794</v>
+        <v>0.0680165499456014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.905224911631</v>
+        <v>51.72517666666667</v>
       </c>
       <c r="H4">
-        <v>49.905224911631</v>
+        <v>155.17553</v>
       </c>
       <c r="I4">
-        <v>0.9958168605052418</v>
+        <v>0.9871016109990332</v>
       </c>
       <c r="J4">
-        <v>0.9958168605052418</v>
+        <v>0.9871016109990332</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>53.169131330974</v>
+        <v>0.111195</v>
       </c>
       <c r="N4">
-        <v>53.169131330974</v>
+        <v>0.333585</v>
       </c>
       <c r="O4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="P4">
-        <v>0.7422751372729526</v>
+        <v>0.001162574982531578</v>
       </c>
       <c r="Q4">
-        <v>2653.417457428304</v>
+        <v>5.751581019450001</v>
       </c>
       <c r="R4">
-        <v>2653.417457428304</v>
+        <v>51.76422917505</v>
       </c>
       <c r="S4">
-        <v>0.739170096830249</v>
+        <v>0.001147579638164093</v>
       </c>
       <c r="T4">
-        <v>0.739170096830249</v>
+        <v>0.001147579638164093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.209637460061401</v>
+        <v>51.72517666666667</v>
       </c>
       <c r="H5">
-        <v>0.209637460061401</v>
+        <v>155.17553</v>
       </c>
       <c r="I5">
-        <v>0.004183139494758258</v>
+        <v>0.9871016109990332</v>
       </c>
       <c r="J5">
-        <v>0.004183139494758258</v>
+        <v>0.9871016109990332</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9218602339762</v>
+        <v>71.61884566666667</v>
       </c>
       <c r="N5">
-        <v>11.9218602339762</v>
+        <v>214.856537</v>
       </c>
       <c r="O5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999665</v>
       </c>
       <c r="P5">
-        <v>0.1664368068501512</v>
+        <v>0.7487951638999664</v>
       </c>
       <c r="Q5">
-        <v>2.49926849865779</v>
+        <v>3704.497444771068</v>
       </c>
       <c r="R5">
-        <v>2.49926849865779</v>
+        <v>33340.47700293961</v>
       </c>
       <c r="S5">
-        <v>0.0006962283801163191</v>
+        <v>0.739136912593942</v>
       </c>
       <c r="T5">
-        <v>0.0006962283801163191</v>
+        <v>0.7391369125939419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.209637460061401</v>
+        <v>0.307031</v>
       </c>
       <c r="H6">
-        <v>0.209637460061401</v>
+        <v>0.9210930000000001</v>
       </c>
       <c r="I6">
-        <v>0.004183139494758258</v>
+        <v>0.005859251031267188</v>
       </c>
       <c r="J6">
-        <v>0.004183139494758258</v>
+        <v>0.005859251031267188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.53895892256346</v>
+        <v>17.32492333333333</v>
       </c>
       <c r="N6">
-        <v>6.53895892256346</v>
+        <v>51.97477</v>
       </c>
       <c r="O6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="P6">
-        <v>0.09128805587689628</v>
+        <v>0.1811369435820938</v>
       </c>
       <c r="Q6">
-        <v>1.370810739972039</v>
+        <v>5.319288535956667</v>
       </c>
       <c r="R6">
-        <v>1.370810739972039</v>
+        <v>47.87359682361</v>
       </c>
       <c r="S6">
-        <v>0.0003818706719383435</v>
+        <v>0.00106132682348397</v>
       </c>
       <c r="T6">
-        <v>0.0003818706719383435</v>
+        <v>0.00106132682348397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -841,49 +844,669 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.209637460061401</v>
+        <v>0.307031</v>
       </c>
       <c r="H7">
-        <v>0.209637460061401</v>
+        <v>0.9210930000000001</v>
       </c>
       <c r="I7">
-        <v>0.004183139494758258</v>
+        <v>0.005859251031267188</v>
       </c>
       <c r="J7">
-        <v>0.004183139494758258</v>
+        <v>0.005859251031267188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.169131330974</v>
+        <v>6.590479666666667</v>
       </c>
       <c r="N7">
-        <v>53.169131330974</v>
+        <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="P7">
-        <v>0.7422751372729526</v>
+        <v>0.06890531753540824</v>
       </c>
       <c r="Q7">
-        <v>11.14624164589645</v>
+        <v>2.023481562536333</v>
       </c>
       <c r="R7">
-        <v>11.14624164589645</v>
+        <v>18.211334062827</v>
       </c>
       <c r="S7">
-        <v>0.003105040442703595</v>
+        <v>0.0004037335528291338</v>
       </c>
       <c r="T7">
-        <v>0.003105040442703595</v>
+        <v>0.0004037335528291338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.307031</v>
+      </c>
+      <c r="H8">
+        <v>0.9210930000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.005859251031267188</v>
+      </c>
+      <c r="J8">
+        <v>0.005859251031267188</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.111195</v>
+      </c>
+      <c r="N8">
+        <v>0.333585</v>
+      </c>
+      <c r="O8">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P8">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q8">
+        <v>0.034140312045</v>
+      </c>
+      <c r="R8">
+        <v>0.307262808405</v>
+      </c>
+      <c r="S8">
+        <v>6.81181866532358E-06</v>
+      </c>
+      <c r="T8">
+        <v>6.81181866532358E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.307031</v>
+      </c>
+      <c r="H9">
+        <v>0.9210930000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.005859251031267188</v>
+      </c>
+      <c r="J9">
+        <v>0.005859251031267188</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N9">
+        <v>214.856537</v>
+      </c>
+      <c r="O9">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P9">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q9">
+        <v>21.98920580388234</v>
+      </c>
+      <c r="R9">
+        <v>197.902852234941</v>
+      </c>
+      <c r="S9">
+        <v>0.004387378836288761</v>
+      </c>
+      <c r="T9">
+        <v>0.004387378836288761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06206066666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.186182</v>
+      </c>
+      <c r="I10">
+        <v>0.001184339774054723</v>
+      </c>
+      <c r="J10">
+        <v>0.001184339774054723</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.32492333333333</v>
+      </c>
+      <c r="N10">
+        <v>51.97477</v>
+      </c>
+      <c r="O10">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="P10">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="Q10">
+        <v>1.075196292015556</v>
+      </c>
+      <c r="R10">
+        <v>9.676766628139999</v>
+      </c>
+      <c r="S10">
+        <v>0.0002145276868349802</v>
+      </c>
+      <c r="T10">
+        <v>0.0002145276868349802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06206066666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.186182</v>
+      </c>
+      <c r="I11">
+        <v>0.001184339774054723</v>
+      </c>
+      <c r="J11">
+        <v>0.001184339774054723</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.590479666666667</v>
+      </c>
+      <c r="N11">
+        <v>19.771439</v>
+      </c>
+      <c r="O11">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="P11">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="Q11">
+        <v>0.4090095617664444</v>
+      </c>
+      <c r="R11">
+        <v>3.681086055898</v>
+      </c>
+      <c r="S11">
+        <v>8.160730820105437E-05</v>
+      </c>
+      <c r="T11">
+        <v>8.160730820105437E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06206066666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.186182</v>
+      </c>
+      <c r="I12">
+        <v>0.001184339774054723</v>
+      </c>
+      <c r="J12">
+        <v>0.001184339774054723</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.111195</v>
+      </c>
+      <c r="N12">
+        <v>0.333585</v>
+      </c>
+      <c r="O12">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P12">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q12">
+        <v>0.006900835829999999</v>
+      </c>
+      <c r="R12">
+        <v>0.06210752247</v>
+      </c>
+      <c r="S12">
+        <v>1.376883792133123E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.376883792133123E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06206066666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.186182</v>
+      </c>
+      <c r="I13">
+        <v>0.001184339774054723</v>
+      </c>
+      <c r="J13">
+        <v>0.001184339774054723</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N13">
+        <v>214.856537</v>
+      </c>
+      <c r="O13">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P13">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q13">
+        <v>4.444713307970444</v>
+      </c>
+      <c r="R13">
+        <v>40.002419771734</v>
+      </c>
+      <c r="S13">
+        <v>0.0008868278952265559</v>
+      </c>
+      <c r="T13">
+        <v>0.0008868278952265558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3067976666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.920393</v>
+      </c>
+      <c r="I14">
+        <v>0.005854798195644849</v>
+      </c>
+      <c r="J14">
+        <v>0.005854798195644849</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.32492333333333</v>
+      </c>
+      <c r="N14">
+        <v>51.97477</v>
+      </c>
+      <c r="O14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="P14">
+        <v>0.1811369435820938</v>
+      </c>
+      <c r="Q14">
+        <v>5.315246053845557</v>
+      </c>
+      <c r="R14">
+        <v>47.83721448461</v>
+      </c>
+      <c r="S14">
+        <v>0.001060520250449066</v>
+      </c>
+      <c r="T14">
+        <v>0.001060520250449066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3067976666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.920393</v>
+      </c>
+      <c r="I15">
+        <v>0.005854798195644849</v>
+      </c>
+      <c r="J15">
+        <v>0.005854798195644849</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.590479666666667</v>
+      </c>
+      <c r="N15">
+        <v>19.771439</v>
+      </c>
+      <c r="O15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="P15">
+        <v>0.06890531753540824</v>
+      </c>
+      <c r="Q15">
+        <v>2.021943783947445</v>
+      </c>
+      <c r="R15">
+        <v>18.197494055527</v>
+      </c>
+      <c r="S15">
+        <v>0.0004034267287766435</v>
+      </c>
+      <c r="T15">
+        <v>0.0004034267287766435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3067976666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.920393</v>
+      </c>
+      <c r="I16">
+        <v>0.005854798195644849</v>
+      </c>
+      <c r="J16">
+        <v>0.005854798195644849</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.111195</v>
+      </c>
+      <c r="N16">
+        <v>0.333585</v>
+      </c>
+      <c r="O16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="P16">
+        <v>0.001162574982531578</v>
+      </c>
+      <c r="Q16">
+        <v>0.034114366545</v>
+      </c>
+      <c r="R16">
+        <v>0.307029298905</v>
+      </c>
+      <c r="S16">
+        <v>6.806641910027723E-06</v>
+      </c>
+      <c r="T16">
+        <v>6.806641910027723E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3067976666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.920393</v>
+      </c>
+      <c r="I17">
+        <v>0.005854798195644849</v>
+      </c>
+      <c r="J17">
+        <v>0.005854798195644849</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>71.61884566666667</v>
+      </c>
+      <c r="N17">
+        <v>214.856537</v>
+      </c>
+      <c r="O17">
+        <v>0.7487951638999665</v>
+      </c>
+      <c r="P17">
+        <v>0.7487951638999664</v>
+      </c>
+      <c r="Q17">
+        <v>21.97249473989345</v>
+      </c>
+      <c r="R17">
+        <v>197.752452659041</v>
+      </c>
+      <c r="S17">
+        <v>0.004384044574509112</v>
+      </c>
+      <c r="T17">
+        <v>0.004384044574509112</v>
       </c>
     </row>
   </sheetData>
